--- a/Custom_Experiments/Index_And_Match.xlsx
+++ b/Custom_Experiments/Index_And_Match.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\GitHub_Excel\Custom_Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\GitHub_Excel\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4FB9E2-374A-41D6-B8D0-776302311E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032ED443-D878-4B77-9B74-28511D646C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7AB9DF04-BB73-4050-9493-CEBAB3C416D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7AB9DF04-BB73-4050-9493-CEBAB3C416D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -950,12 +950,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -966,10 +981,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -978,12 +989,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1011,9 +1029,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1063,25 +1078,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D5E85191-D24B-4230-928D-A5B56DDAC53A}" name="MobileNumber_IndexMatch" displayName="MobileNumber_IndexMatch" ref="A1:D19" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:D19" xr:uid="{D5E85191-D24B-4230-928D-A5B56DDAC53A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B153B183-28C4-4285-ACCA-D458DA2E5F31}" name="Country" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{B153B183-28C4-4285-ACCA-D458DA2E5F31}" name="Country" dataDxfId="4">
       <calculatedColumnFormula>INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD54AAE7-2EA7-4FDF-8ECB-40F7C90EE7D3}" name="Actual Number" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{FD54AAE7-2EA7-4FDF-8ECB-40F7C90EE7D3}" name="Actual Number" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>RANDBETWEEN(1000000000,(10000000000)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ED2025-4A3C-4320-9E10-55E8AB3C62F8}" name="Country Code" dataDxfId="1">
-      <calculatedColumnFormula>INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{B2591CA1-681C-401B-BD1C-74FE942D9A9B}" name="Mobile Number with code" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" xr3:uid="{42ED2025-4A3C-4320-9E10-55E8AB3C62F8}" name="Country Code" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B2591CA1-681C-401B-BD1C-74FE942D9A9B}" name="Mobile Number with code" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD0CE5BF-28A1-4260-88A1-7ECE55113295}" name="Country_Codes8" displayName="Country_Codes8" ref="H1:I241" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD0CE5BF-28A1-4260-88A1-7ECE55113295}" name="Country_Codes8" displayName="Country_Codes8" ref="H1:I241" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="H1:I241" xr:uid="{FD0CE5BF-28A1-4260-88A1-7ECE55113295}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1F77F08A-2936-4005-9184-F89C1409BEE3}" name="Country"/>
@@ -1390,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23791B1F-192C-4C29-838E-3235A31261EE}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection sqref="A1:B241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,10 +1435,10 @@
       <c r="B3">
         <v>355</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -1438,13 +1449,10 @@
       <c r="B4">
         <v>213</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>121</v>
       </c>
-      <c r="F4" s="3">
-        <f>INDEX(Country_Codes[[#All],[Country Code]],E4)</f>
-        <v>423</v>
-      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1453,13 +1461,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>103</v>
       </c>
-      <c r="F5" s="3">
-        <f>INDEX(Country_Codes[[#All],[Country Code]],E5)</f>
-        <v>39</v>
-      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1468,13 +1473,10 @@
       <c r="B6">
         <v>376</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>154</v>
       </c>
-      <c r="F6" s="3">
-        <f>INDEX(Country_Codes[[#All],[Country Code]],E6)</f>
-        <v>227</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3370,7 +3372,7 @@
   <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,10 +3398,10 @@
       <c r="B2">
         <v>93</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3410,13 +3412,10 @@
       <c r="B3">
         <v>355</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="5">
-        <f>MATCH(E3,Country_Codes6[[#All],[Country]],0)</f>
-        <v>142</v>
-      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3425,13 +3424,10 @@
       <c r="B4">
         <v>213</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="5">
-        <f>MATCH(E4,Country_Codes6[[#All],[Country]],0)</f>
-        <v>123</v>
-      </c>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3440,13 +3436,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="5">
-        <f>MATCH(E5,Country_Codes6[[#All],[Country]],0)</f>
-        <v>91</v>
-      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3455,13 +3448,10 @@
       <c r="B6">
         <v>376</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="5">
-        <f>MATCH(E6,Country_Codes6[[#All],[Country]],0)</f>
-        <v>80</v>
-      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3470,13 +3460,10 @@
       <c r="B7">
         <v>244</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="5">
-        <f>MATCH(E7,Country_Codes6[[#All],[Country]],0)</f>
-        <v>172</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3485,13 +3472,10 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="5">
-        <f>MATCH(E8,Country_Codes6[[#All],[Country]],0)</f>
-        <v>240</v>
-      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3500,13 +3484,10 @@
       <c r="B9">
         <v>672</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="5">
-        <f>MATCH(E9,Country_Codes6[[#All],[Country]],0)</f>
-        <v>2</v>
-      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3515,13 +3496,10 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="5">
-        <f>MATCH(E10,Country_Codes6[[#All],[Country]],0)</f>
-        <v>231</v>
-      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5383,31 +5361,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519D5CC5-935A-4D14-B9F7-C9CE5AA9B75A}">
   <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -5420,19 +5398,11 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Ivory Coast</v>
-      </c>
-      <c r="B2" s="7">
+        <v>Grenada</v>
+      </c>
+      <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(1000000000,(10000000000)-1)</f>
-        <v>8705511072</v>
-      </c>
-      <c r="C2" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>225</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+2258705511072</v>
+        <v>2555508235</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -5444,19 +5414,11 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Barbados</v>
-      </c>
-      <c r="B3" s="7">
+        <v>Turkey</v>
+      </c>
+      <c r="B3" s="3">
         <f t="shared" ref="B3:B19" ca="1" si="0">RANDBETWEEN(1000000000,(10000000000)-1)</f>
-        <v>6446783994</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>1-246</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+1-2466446783994</v>
+        <v>1731996339</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -5468,19 +5430,11 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Afghanistan</v>
-      </c>
-      <c r="B4" s="7">
+        <v>Saint Pierre and Miquelon</v>
+      </c>
+      <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2009054728</v>
-      </c>
-      <c r="C4" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>93</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+932009054728</v>
+        <v>1304481610</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -5492,19 +5446,11 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Luxembourg</v>
-      </c>
-      <c r="B5" s="7">
+        <v>Cuba</v>
+      </c>
+      <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2946495812</v>
-      </c>
-      <c r="C5" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>352</v>
-      </c>
-      <c r="D5" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+3522946495812</v>
+        <v>3207787819</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -5516,19 +5462,11 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Pakistan</v>
-      </c>
-      <c r="B6" s="7">
+        <v>Mauritius</v>
+      </c>
+      <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9846217251</v>
-      </c>
-      <c r="C6" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>92</v>
-      </c>
-      <c r="D6" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+929846217251</v>
+        <v>4656199914</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -5540,19 +5478,11 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Lebanon</v>
-      </c>
-      <c r="B7" s="7">
+        <v>Vatican</v>
+      </c>
+      <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8636670081</v>
-      </c>
-      <c r="C7" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>961</v>
-      </c>
-      <c r="D7" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+9618636670081</v>
+        <v>8139062162</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -5564,19 +5494,11 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Cyprus</v>
-      </c>
-      <c r="B8" s="7">
+        <v>Australia</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7780937924</v>
-      </c>
-      <c r="C8" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>357</v>
-      </c>
-      <c r="D8" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+3577780937924</v>
+        <v>1187325528</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -5588,19 +5510,11 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Sudan</v>
-      </c>
-      <c r="B9" s="7">
+        <v>Ethiopia</v>
+      </c>
+      <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7300707472</v>
-      </c>
-      <c r="C9" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>249</v>
-      </c>
-      <c r="D9" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+2497300707472</v>
+        <v>3977724248</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -5612,19 +5526,11 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Zambia</v>
-      </c>
-      <c r="B10" s="7">
+        <v>Israel</v>
+      </c>
+      <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6076288785</v>
-      </c>
-      <c r="C10" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>260</v>
-      </c>
-      <c r="D10" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+2606076288785</v>
+        <v>1741962289</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -5636,19 +5542,11 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Italy</v>
-      </c>
-      <c r="B11" s="7">
+        <v>Egypt</v>
+      </c>
+      <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9825132637</v>
-      </c>
-      <c r="C11" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>39</v>
-      </c>
-      <c r="D11" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+399825132637</v>
+        <v>8353703472</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -5660,19 +5558,11 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Eritrea</v>
-      </c>
-      <c r="B12" s="7">
+        <v>Germany</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6458824740</v>
-      </c>
-      <c r="C12" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>291</v>
-      </c>
-      <c r="D12" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+2916458824740</v>
+        <v>7966278681</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -5684,19 +5574,11 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Cocos Islands</v>
-      </c>
-      <c r="B13" s="7">
+        <v>Zambia</v>
+      </c>
+      <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5806233615</v>
-      </c>
-      <c r="C13" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>61</v>
-      </c>
-      <c r="D13" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+615806233615</v>
+        <v>2841223563</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -5708,19 +5590,11 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Guinea-Bissau</v>
-      </c>
-      <c r="B14" s="7">
+        <v>Kazakhstan</v>
+      </c>
+      <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7344344848</v>
-      </c>
-      <c r="C14" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>245</v>
-      </c>
-      <c r="D14" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+2457344344848</v>
+        <v>8846398869</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -5732,19 +5606,11 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Kyrgyzstan</v>
-      </c>
-      <c r="B15" s="7">
+        <v>Serbia</v>
+      </c>
+      <c r="B15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1541687171</v>
-      </c>
-      <c r="C15" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>996</v>
-      </c>
-      <c r="D15" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+9961541687171</v>
+        <v>2580935128</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
@@ -5756,19 +5622,11 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Estonia</v>
-      </c>
-      <c r="B16" s="7">
+        <v>Senegal</v>
+      </c>
+      <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8756797486</v>
-      </c>
-      <c r="C16" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>372</v>
-      </c>
-      <c r="D16" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+3728756797486</v>
+        <v>4689398641</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
@@ -5780,19 +5638,11 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Andorra</v>
-      </c>
-      <c r="B17" s="7">
+        <v>Liechtenstein</v>
+      </c>
+      <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8251309523</v>
-      </c>
-      <c r="C17" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>376</v>
-      </c>
-      <c r="D17" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+3768251309523</v>
+        <v>2564898802</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
@@ -5804,19 +5654,11 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Myanmar</v>
-      </c>
-      <c r="B18" s="7">
+        <v>Laos</v>
+      </c>
+      <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8084916661</v>
-      </c>
-      <c r="C18" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>95</v>
-      </c>
-      <c r="D18" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+958084916661</v>
+        <v>2432276852</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -5828,19 +5670,11 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f ca="1">INDEX(Country_Codes8[[#All],[Country]],RANDBETWEEN(2,241))</f>
-        <v>Niue</v>
-      </c>
-      <c r="B19" s="7">
+        <v>Palestine</v>
+      </c>
+      <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2586288692</v>
-      </c>
-      <c r="C19" s="8">
-        <f ca="1">INDEX(Country_Codes8[[#All],[Country Code]],MATCH(MobileNumber_IndexMatch[[#This Row],[Country]],Country_Codes8[[#All],[Country]],0))</f>
-        <v>683</v>
-      </c>
-      <c r="D19" t="str">
-        <f ca="1">_xlfn.CONCAT("+",MobileNumber_IndexMatch[[#This Row],[Country Code]],MobileNumber_IndexMatch[[#This Row],[Actual Number]])</f>
-        <v>+6832586288692</v>
+        <v>2310842422</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
